--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -51,10 +51,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T08:45:42+00:00</t>
+    <t>2024-04-08T13:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -102,9 +105,6 @@
     <t>Compositional</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Version Needed?</t>
   </si>
   <si>
@@ -141,7 +141,7 @@
     <t>idNat_Struct</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifiant de l'ESMS accueillant l'individu en situation de handicap. Cet identifiant est obtenu par la concaténation du type d'identifiant national de structure (provenant de la nomenclature TRE_G07-TypeIdentifiantStructure) et de l'identifiant de la structure: ** 1 + N° FINESS (entité juridique et entité géographique indéterminées);** 3 + N° SIRET </t>
+    <t>Identifiant de l'ESMS accueillant l'individu en situation de handicap. Cet identifiant est obtenu par la concaténation du type d'identifiant national de structure (provenant de la nomenclature TRE_G07-TypeIdentifiantStructure) et de l'identifiant de la structure: ** 1 + N° FINESS (entité juridique et entité géographique indéterminées);** 3 + N° SIRET</t>
   </si>
   <si>
     <t>nomESMS</t>
@@ -417,7 +417,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -431,86 +433,88 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T13:54:50+00:00</t>
+    <t>2024-04-15T07:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T07:06:55+00:00</t>
+    <t>2024-04-16T07:58:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T07:58:07+00:00</t>
+    <t>2024-04-16T08:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:04:57+00:00</t>
+    <t>2024-04-16T08:07:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:07:09+00:00</t>
+    <t>2024-04-16T14:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-2</t>
+    <t>4.0.2-ballot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T14:08:46+00:00</t>
+    <t>2024-04-18T09:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:01:06+00:00</t>
+    <t>2024-04-18T09:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:17:36+00:00</t>
+    <t>2024-04-18T09:19:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T14:05:49+00:00</t>
+    <t>2024-06-18T14:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T14:54:15+00:00</t>
+    <t>2024-06-18T17:21:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T17:21:18+00:00</t>
+    <t>2024-07-02T09:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:49:27+00:00</t>
+    <t>2024-07-02T09:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:56:41+00:00</t>
+    <t>2024-07-02T09:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:57:00+00:00</t>
+    <t>2024-07-02T14:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:05:06+00:00</t>
+    <t>2024-07-02T14:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:24:18+00:00</t>
+    <t>2024-07-03T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T07:35:44+00:00</t>
+    <t>2024-07-03T12:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T12:52:21+00:00</t>
+    <t>2024-09-27T09:57:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T09:57:43+00:00</t>
+    <t>2024-09-27T16:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T16:26:26+00:00</t>
+    <t>2024-09-27T16:53:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T16:53:13+00:00</t>
+    <t>2024-09-30T21:21:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T21:21:44+00:00</t>
+    <t>2024-10-02T20:14:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T20:14:47+00:00</t>
+    <t>2024-10-03T12:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-03T12:27:30+00:00</t>
+    <t>2024-10-04T08:06:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T08:06:21+00:00</t>
+    <t>2024-10-04T14:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-04T14:46:58+00:00</t>
+    <t>2024-10-07T13:01:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T13:01:26+00:00</t>
+    <t>2024-10-09T12:11:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-09T12:11:40+00:00</t>
+    <t>2024-10-15T12:27:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T12:27:57+00:00</t>
+    <t>2024-10-21T08:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T08:06:01+00:00</t>
+    <t>2024-10-21T09:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T09:33:00+00:00</t>
+    <t>2024-10-21T11:49:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T11:49:02+00:00</t>
+    <t>2024-10-21T15:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T15:03:10+00:00</t>
+    <t>2024-11-04T11:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T07:56:02+00:00</t>
+    <t>2024-11-25T07:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T07:58:23+00:00</t>
+    <t>2024-11-25T09:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T09:06:08+00:00</t>
+    <t>2024-11-25T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T09:06:42+00:00</t>
+    <t>2024-11-26T13:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T13:14:13+00:00</t>
+    <t>2024-12-12T08:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T08:32:59+00:00</t>
+    <t>2024-12-12T09:54:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T09:54:48+00:00</t>
+    <t>2024-12-12T16:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T16:11:50+00:00</t>
+    <t>2024-12-12T16:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T16:13:29+00:00</t>
+    <t>2024-12-13T09:00:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T09:00:45+00:00</t>
+    <t>2024-12-17T10:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T10:42:26+00:00</t>
+    <t>2024-12-17T15:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T15:34:44+00:00</t>
+    <t>2024-12-19T12:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T12:46:51+00:00</t>
+    <t>2024-12-19T14:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:23:02+00:00</t>
+    <t>2024-12-19T14:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:31:30+00:00</t>
+    <t>2025-01-09T09:31:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T09:31:59+00:00</t>
+    <t>2025-01-13T14:44:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T14:44:29+00:00</t>
+    <t>2025-01-22T13:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T13:25:19+00:00</t>
+    <t>2025-01-22T13:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T13:26:17+00:00</t>
+    <t>2025-01-28T08:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T08:40:54+00:00</t>
+    <t>2025-01-29T16:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T16:58:30+00:00</t>
+    <t>2025-01-29T17:04:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T17:04:40+00:00</t>
+    <t>2025-01-30T14:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3-ballot</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T14:25:53+00:00</t>
+    <t>2025-01-30T15:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T17:20:03+00:00</t>
+    <t>2025-03-12T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T09:03:52+00:00</t>
+    <t>2025-06-10T12:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T12:40:27+00:00</t>
+    <t>2025-06-16T08:34:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T08:34:53+00:00</t>
+    <t>2025-06-16T08:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T08:35:57+00:00</t>
+    <t>2025-06-18T13:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T13:08:40+00:00</t>
+    <t>2025-06-19T08:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T08:03:00+00:00</t>
+    <t>2025-10-09T08:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>dateStatutESMS</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée dans le statut</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut ESMS</t>
   </si>
   <si>
     <t>idUnite</t>
@@ -213,7 +213,7 @@
     <t>dateStatutUnite</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée renseignée par l'utilisateur pour les statuts</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l’unité</t>
   </si>
   <si>
     <t>motifUnite</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.4</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:51:23+00:00</t>
+    <t>2025-10-13T12:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T12:40:15+00:00</t>
+    <t>2025-10-13T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T13:47:24+00:00</t>
+    <t>2025-10-13T14:26:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:26:04+00:00</t>
+    <t>2025-10-13T14:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:36:29+00:00</t>
+    <t>2025-10-13T15:03:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.5</t>
+    <t>4.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:52:01+00:00</t>
+    <t>2025-12-15T14:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/main/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T14:05:09+00:00</t>
+    <t>2025-12-15T14:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
